--- a/data/sampah_jakarta.xlsx
+++ b/data/sampah_jakarta.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\Summer Course 2024\Task6\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pemrograman\Summer Course\Task6-UPI-Summer-Course-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC3139-1E1E-4856-9556-25F6E7D44B9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
   <si>
     <t>Tahun</t>
   </si>
@@ -61,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -71,6 +70,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,12 +105,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,23 +427,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" customWidth="1"/>
+    <col min="5" max="5" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,109 +460,467 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="E2" s="6">
+        <v>6210.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1327.56</v>
+      </c>
+      <c r="E3" s="6">
+        <v>484561.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1904.63</v>
+      </c>
+      <c r="E4" s="6">
+        <v>695190.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2253.66</v>
+      </c>
+      <c r="E5" s="6">
+        <v>822585.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17.34</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6329.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>844.74</v>
+      </c>
+      <c r="E7" s="6">
+        <v>308331.28999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1341.04</v>
+      </c>
+      <c r="E8" s="6">
+        <v>489481.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1971.97</v>
+      </c>
+      <c r="E9" s="6">
+        <v>719768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1921</v>
+      </c>
+      <c r="E10" s="6">
+        <v>701164.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2273.25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>829738.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17.62</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6429.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>847.39</v>
+      </c>
+      <c r="E13" s="6">
+        <v>309298.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1354.67</v>
+      </c>
+      <c r="E14" s="6">
+        <v>494454.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1937.54</v>
+      </c>
+      <c r="E15" s="6">
+        <v>707201.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2293.04</v>
+      </c>
+      <c r="E16" s="6">
+        <v>836961.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17.89</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6531.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>850.05</v>
+      </c>
+      <c r="E18" s="6">
+        <v>310268.53000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1368.44</v>
+      </c>
+      <c r="E19" s="6">
+        <v>499480.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2023.42</v>
+      </c>
+      <c r="E20" s="6">
+        <v>738547.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1954.25</v>
+      </c>
+      <c r="E21" s="6">
+        <v>713300.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2313.02</v>
+      </c>
+      <c r="E22" s="6">
+        <v>844252.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>2023</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D23" s="4">
         <v>18.18</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E23" s="5">
         <v>6634.27</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>2023</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D24" s="4">
         <v>852.72</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E24" s="5">
         <v>311242.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>2023</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D25" s="5">
         <v>1382.36</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E25" s="5">
         <v>504560.46</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>2023</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D26" s="5">
         <v>2049.69</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E26" s="5">
         <v>748135.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>2023</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D27" s="5">
         <v>1971.13</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E27" s="5">
         <v>719463.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>2023</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D28" s="5">
         <v>2333.19</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E28" s="5">
         <v>851613.56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>